--- a/data/prematurity April 2023/perinatal mortality rate q1s.xlsx
+++ b/data/prematurity April 2023/perinatal mortality rate q1s.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PIMPA.SAWULU\Desktop\PDSR Q1 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PIMPA.SAWULU\Desktop\R project doc_E4H\E4H-Zambia\data\prematurity April 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE938265-6A87-414F-99F6-5F2815B4AF55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2C732C-FBAB-4179-B96D-825A9C5B0AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{58B0EE6E-B82B-4C9A-AB2A-F089AC76CBCC}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Prov Peri Mort Rate Q1 2019-23 '!$A$1:$C$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -438,8 +437,8 @@
   </sheetPr>
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.5"/>
@@ -1158,7 +1157,7 @@
         <v>3</v>
       </c>
       <c r="B42" s="1">
-        <v>17.627275890061462</v>
+        <v>10.598981939892616</v>
       </c>
       <c r="C42">
         <v>2023</v>
@@ -1169,7 +1168,7 @@
         <v>4</v>
       </c>
       <c r="B43" s="1">
-        <v>17.601336159825269</v>
+        <v>14.330543933054393</v>
       </c>
       <c r="C43">
         <v>2023</v>
@@ -1180,7 +1179,7 @@
         <v>5</v>
       </c>
       <c r="B44" s="1">
-        <v>22.410840592658776</v>
+        <v>13.453115223026726</v>
       </c>
       <c r="C44">
         <v>2023</v>
@@ -1191,7 +1190,7 @@
         <v>6</v>
       </c>
       <c r="B45" s="1">
-        <v>9.5971884293052181</v>
+        <v>4.9632995456134212</v>
       </c>
       <c r="C45">
         <v>2023</v>
@@ -1202,7 +1201,7 @@
         <v>7</v>
       </c>
       <c r="B46" s="1">
-        <v>56.151097498723836</v>
+        <v>29.473376528474692</v>
       </c>
       <c r="C46">
         <v>2023</v>
@@ -1213,7 +1212,7 @@
         <v>8</v>
       </c>
       <c r="B47" s="1">
-        <v>13.64445323314218</v>
+        <v>9.7155730780061944</v>
       </c>
       <c r="C47">
         <v>2023</v>
@@ -1224,7 +1223,7 @@
         <v>9</v>
       </c>
       <c r="B48" s="1">
-        <v>29.977628635346758</v>
+        <v>15.514646289220796</v>
       </c>
       <c r="C48">
         <v>2023</v>
@@ -1235,7 +1234,7 @@
         <v>10</v>
       </c>
       <c r="B49" s="1">
-        <v>45.940843297671492</v>
+        <v>22.723735408560312</v>
       </c>
       <c r="C49">
         <v>2023</v>
@@ -1246,7 +1245,7 @@
         <v>11</v>
       </c>
       <c r="B50" s="1">
-        <v>25.55366269165247</v>
+        <v>15.239600383812158</v>
       </c>
       <c r="C50">
         <v>2023</v>
@@ -1257,7 +1256,7 @@
         <v>12</v>
       </c>
       <c r="B51" s="1">
-        <v>17.541087231352719</v>
+        <v>13.415518491660624</v>
       </c>
       <c r="C51">
         <v>2023</v>
